--- a/respuestasEncuesta.xlsx
+++ b/respuestasEncuesta.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="223">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -552,6 +552,142 @@
   </si>
   <si>
     <t>No recuerdo</t>
+  </si>
+  <si>
+    <t>Mercadona, Consum, Dialprix</t>
+  </si>
+  <si>
+    <t>En las barras de ensalada ponen mucha lechuga y poco condumio</t>
+  </si>
+  <si>
+    <t>Para llevar al trabajo/universidad, Como complemento de otra comida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No he tenido </t>
+  </si>
+  <si>
+    <t>Pasta, Legumbres</t>
+  </si>
+  <si>
+    <t>Nunca he tenido malas experiencias</t>
+  </si>
+  <si>
+    <t>La verdad es que mientras los productos estén frescos, no.</t>
+  </si>
+  <si>
+    <t>Prefiero no decirlo</t>
+  </si>
+  <si>
+    <t>No he tenido</t>
+  </si>
+  <si>
+    <t>Para comer en el momento, Como cena ligera</t>
+  </si>
+  <si>
+    <t>Mercadona, Consum, Aldi, Gadis</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>ESO (antiguo BUP)</t>
+  </si>
+  <si>
+    <t>Comida rápida, Platos preparados de supermercado</t>
+  </si>
+  <si>
+    <t>Frutos secos/semillas, Especias</t>
+  </si>
+  <si>
+    <t>Gadis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna </t>
+  </si>
+  <si>
+    <t>Pescado, Quesos</t>
+  </si>
+  <si>
+    <t>Mercadona, Gadis</t>
+  </si>
+  <si>
+    <t>Me preocupa la falta de higiene en la manipulación de los alimentos</t>
+  </si>
+  <si>
+    <t>Lidl, Mercadona, Consum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princi son saludables, no puedo cocinar o calentar los platos preparados 
+</t>
+  </si>
+  <si>
+    <t>No he tenido ninguna mala experiencia</t>
+  </si>
+  <si>
+    <t>Marisco, Carne</t>
+  </si>
+  <si>
+    <t>Comida preparada en un bar o restaurante (Excluyendo comida rápida), Platos preparados de supermercado, De elaboración propia</t>
+  </si>
+  <si>
+    <t>Quesos, Carne</t>
+  </si>
+  <si>
+    <t>Carrefour, DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no podría describir ninguna. ya que los bares, cafeterías y supermercados en los que suelo comer fuera de casa no tienen implementado esta función de autoservicio. </t>
+  </si>
+  <si>
+    <t>No he tenido ninguna</t>
+  </si>
+  <si>
+    <t>Carrefour, Consum</t>
+  </si>
+  <si>
+    <t>Falta de higiene</t>
+  </si>
+  <si>
+    <t>Lechuga iceberg o romana, Legumbres</t>
+  </si>
+  <si>
+    <t>Problemas con la higiene</t>
+  </si>
+  <si>
+    <t>Verduras cocinadas</t>
+  </si>
+  <si>
+    <t>Lidl, Mercadona, Consum, Alcampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Sibo </t>
+  </si>
+  <si>
+    <t>Pasta, Quinoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comer en Pompeya </t>
+  </si>
+  <si>
+    <t>Carrefour, Lidl</t>
+  </si>
+  <si>
+    <t>Comida con mala pinta</t>
+  </si>
+  <si>
+    <t>Mercadona, Consum, Masymas</t>
+  </si>
+  <si>
+    <t>no he tenido</t>
+  </si>
+  <si>
+    <t>Lechuga iceberg o romana, Quinoa</t>
+  </si>
+  <si>
+    <t>Masymas, Alcampo, Gadis</t>
+  </si>
+  <si>
+    <t>No he tenido.</t>
   </si>
 </sst>
 </file>
@@ -588,12 +724,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -676,7 +818,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AD37" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AD66" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="30">
     <tableColumn name="Marca temporal" id="1"/>
     <tableColumn name="¿Cuál es el principal motivo por el que suele comer fuera de casa?" id="2"/>
@@ -4337,6 +4479,2674 @@
         <v>49</v>
       </c>
     </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="4">
+        <v>45996.55430171297</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X38" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="4">
+        <v>45996.55799914352</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="4">
+        <v>45996.565877824076</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R40" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S40" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X40" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD40" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="4">
+        <v>45996.57975787037</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N41" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R41" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X41" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="4">
+        <v>45996.58014237268</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N42" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S42" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X42" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="4">
+        <v>45996.58496317129</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="S43" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X43" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD43" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="4">
+        <v>45996.587510219906</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O44" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R44" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S44" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD44" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="A45" s="4">
+        <v>45996.632865844906</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X45" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD45" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" s="4">
+        <v>45996.71803184028</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="N46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S46" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X46" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="A47" s="4">
+        <v>45996.846677037036</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O47" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="R47" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="S47" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X47" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1">
+      <c r="A48" s="4">
+        <v>45996.92741533565</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P48" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R48" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S48" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X48" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" s="4">
+        <v>45996.93561479167</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N49" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O49" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P49" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R49" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S49" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X49" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1">
+      <c r="A50" s="4">
+        <v>45997.0287103125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S50" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X50" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" s="4">
+        <v>45997.506307268515</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N51" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R51" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X51" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="A52" s="4">
+        <v>45997.515204236115</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="N52" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S52" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X52" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD52" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" s="4">
+        <v>45997.69163223379</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="P53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="S53" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X53" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD53" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="A54" s="4">
+        <v>45998.368989571754</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S54" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X54" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD54" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" s="4">
+        <v>45998.53522361111</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X55" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD55" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" s="4">
+        <v>45998.539371921295</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R56" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X56" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD56" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="A57" s="4">
+        <v>45998.54363461805</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X57" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC57" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD57" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" s="4">
+        <v>46000.738787326394</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R58" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X58" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB58" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD58" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" s="4">
+        <v>46000.74013766204</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X59" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD59" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" s="4">
+        <v>46000.959695</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X60" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD60" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" s="4">
+        <v>46000.96067197916</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X61" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" s="4">
+        <v>46000.96194069444</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X62" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD62" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" s="4">
+        <v>46000.963031886575</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N63" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Y63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z63" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD63" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="4">
+        <v>46001.96009893519</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H64" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O64" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="R64" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X64" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Y64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD64" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" s="4">
+        <v>46001.96112662037</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N65" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="R65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="S65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X65" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Y65" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD65" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="4">
+        <v>46001.9621075926</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O66" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P66" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R66" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="S66" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X66" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y66" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD66" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
